--- a/example.xlsx
+++ b/example.xlsx
@@ -443,13 +443,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -457,44 +457,44 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -516,97 +516,69 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
